--- a/ecy4.xlsx
+++ b/ecy4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://perissosprivatewealth-my.sharepoint.com/personal/brandon_perissosprivatewealth_com/Documents/1 Perissos Private Wealth Management/5 Python/Wealth Utility/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://perissosprivatewealth-my.sharepoint.com/personal/brandon_perissosprivatewealth_com/Documents/1 Perissos Private Wealth Management/5 Python/Wealth Utility API/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="131" documentId="13_ncr:1_{A317B0E7-1C5D-450E-A529-DF31A54AA737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D26DF8FF-6377-4E6C-A3C0-0AF188746FFC}"/>
+  <xr:revisionPtr revIDLastSave="219" documentId="13_ncr:1_{A317B0E7-1C5D-450E-A529-DF31A54AA737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{668CA87C-6841-484E-A393-00E5A0998B8F}"/>
   <bookViews>
-    <workbookView xWindow="28650" yWindow="15780" windowWidth="29040" windowHeight="16005" xr2:uid="{7D23DFD4-FCD3-40E1-B8A0-B864FE11F7D6}"/>
+    <workbookView minimized="1" xWindow="28800" yWindow="15840" windowWidth="28800" windowHeight="15840" activeTab="1" xr2:uid="{7D23DFD4-FCD3-40E1-B8A0-B864FE11F7D6}"/>
   </bookViews>
   <sheets>
     <sheet name="ecy" sheetId="2" r:id="rId1"/>
@@ -628,10 +628,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -949,10 +945,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173E5D82-F300-41D6-89B7-1A964CE4FD56}">
-  <dimension ref="A1:F553"/>
+  <dimension ref="A1:F554"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A532" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView topLeftCell="A523" workbookViewId="0">
+      <selection activeCell="E550" sqref="E550"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -986,15 +982,15 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
-        <f t="array" ref="A2:A553">_xll.YCDS("I:SP500ECY",,"1980-01-01")</f>
+        <f t="array" ref="A2:A554">_xll.YCDS("I:SP500ECY",,"1980-01-01")</f>
         <v>1980-01-31</v>
       </c>
       <c r="B2">
-        <f t="array" aca="1" ref="B2:B553" ca="1">_xll.YCS("I:SP500ECY",,"1980-01-01")</f>
+        <f t="array" aca="1" ref="B2:B554" ca="1">_xll.YCS("I:SP500ECY",,"1980-01-01")</f>
         <v>7.9799999999999996E-2</v>
       </c>
       <c r="C2">
-        <f t="array" aca="1" ref="C2:C553" ca="1">_xll.YCS("I:usltir",,"1980-01-01")</f>
+        <f t="array" aca="1" ref="C2:C554" ca="1">_xll.YCS("I:usltir",,"1980-01-01")</f>
         <v>0.108</v>
       </c>
       <c r="D2">
@@ -1002,7 +998,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="E2" s="1">
-        <f t="array" aca="1" ref="E2:E550" ca="1">_xll.YCS("I:us1mccpi",,"1980-01-01")</f>
+        <f t="array" aca="1" ref="E2:E553" ca="1">_xll.YCS("I:us1mccpi",,"1980-01-01")</f>
         <v>1.4E-2</v>
       </c>
       <c r="F2" s="1">
@@ -14718,6 +14714,10 @@
         <f ca="1"/>
         <v>4.0599999999999997E-2</v>
       </c>
+      <c r="E551" s="1" t="str">
+        <f ca="1"/>
+        <v>ERR: NO DATA</v>
+      </c>
     </row>
     <row r="552" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A552" t="str">
@@ -14725,11 +14725,15 @@
       </c>
       <c r="B552">
         <f ca="1"/>
-        <v>1.67E-2</v>
+        <v>1.6199999999999999E-2</v>
       </c>
       <c r="C552">
         <f ca="1"/>
         <v>4.0899999999999999E-2</v>
+      </c>
+      <c r="E552" s="1" t="str">
+        <f ca="1"/>
+        <v>ERR: NO DATA</v>
       </c>
     </row>
     <row r="553" spans="1:6" x14ac:dyDescent="0.25">
@@ -14738,11 +14742,28 @@
       </c>
       <c r="B553">
         <f ca="1"/>
-        <v>1.7600000000000001E-2</v>
+        <v>1.55E-2</v>
       </c>
       <c r="C553">
         <f ca="1"/>
-        <v>4.02E-2</v>
+        <v>4.1399999999999999E-2</v>
+      </c>
+      <c r="E553" s="1">
+        <f ca="1"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="554" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A554" t="str">
+        <v>2026-01-31</v>
+      </c>
+      <c r="B554">
+        <f ca="1"/>
+        <v>1.49E-2</v>
+      </c>
+      <c r="C554">
+        <f ca="1"/>
+        <v>4.1799999999999997E-2</v>
       </c>
     </row>
   </sheetData>
@@ -14752,9 +14773,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA56A079-CA0B-477E-8FC4-5F43798C1EE5}">
-  <dimension ref="A1:J673"/>
+  <dimension ref="A1:J674"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A658" workbookViewId="0">
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
@@ -14802,7 +14823,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
-        <f t="array" ref="A2:A673">_xll.YCDS("I:USLTIR",,"1970-01-31")</f>
+        <f t="array" ref="A2:A674">_xll.YCDS("I:USLTIR",,"1970-01-31")</f>
         <v>1970-01-31</v>
       </c>
       <c r="B2">
@@ -14810,11 +14831,11 @@
         <v>48.888541424802114</v>
       </c>
       <c r="C2">
-        <f t="array" aca="1" ref="C2:C670" ca="1">_xll.YCS("I:USCPI",,"1970-01-31")</f>
+        <f t="array" aca="1" ref="C2:C673" ca="1">_xll.YCS("I:USCPI",,"1970-01-31")</f>
         <v>37.9</v>
       </c>
       <c r="D2">
-        <f t="array" aca="1" ref="D2:D673" ca="1">_xll.YCS("I:USLTIR",,"1970-01-31")</f>
+        <f t="array" aca="1" ref="D2:D674" ca="1">_xll.YCS("I:USLTIR",,"1970-01-31")</f>
         <v>7.7899999999999997E-2</v>
       </c>
       <c r="E2">
@@ -14833,11 +14854,11 @@
         <v>1.0916666666666661E-3</v>
       </c>
       <c r="I2" s="2">
-        <f t="array" aca="1" ref="I2:I673" ca="1">_xll.YCS("I:SP500ECY",,"1970-01-31")</f>
+        <f t="array" aca="1" ref="I2:I674" ca="1">_xll.YCS("I:SP500ECY",,"1970-01-31")</f>
         <v>6.4000000000000003E-3</v>
       </c>
       <c r="J2" s="2">
-        <f t="array" aca="1" ref="J2:J670" ca="1">_xll.YCS("I:SP500RD", ,"1970-01-31")</f>
+        <f t="array" aca="1" ref="J2:J673" ca="1">_xll.YCS("I:SP500RD", ,"1970-01-31")</f>
         <v>21.813400000000001</v>
       </c>
     </row>
@@ -41365,7 +41386,7 @@
       </c>
       <c r="J649">
         <f ca="1"/>
-        <v>74.583160000000007</v>
+        <v>74.098770000000002</v>
       </c>
     </row>
     <row r="650" spans="1:10" x14ac:dyDescent="0.25">
@@ -41406,7 +41427,7 @@
       </c>
       <c r="J650">
         <f ca="1"/>
-        <v>74.362359999999995</v>
+        <v>73.879400000000004</v>
       </c>
     </row>
     <row r="651" spans="1:10" x14ac:dyDescent="0.25">
@@ -41447,7 +41468,7 @@
       </c>
       <c r="J651">
         <f ca="1"/>
-        <v>74.087069999999997</v>
+        <v>73.605900000000005</v>
       </c>
     </row>
     <row r="652" spans="1:10" x14ac:dyDescent="0.25">
@@ -41488,7 +41509,7 @@
       </c>
       <c r="J652">
         <f ca="1"/>
-        <v>73.79222</v>
+        <v>73.312960000000004</v>
       </c>
     </row>
     <row r="653" spans="1:10" x14ac:dyDescent="0.25">
@@ -41529,7 +41550,7 @@
       </c>
       <c r="J653">
         <f ca="1"/>
-        <v>73.904229999999998</v>
+        <v>73.424239999999998</v>
       </c>
     </row>
     <row r="654" spans="1:10" x14ac:dyDescent="0.25">
@@ -41570,7 +41591,7 @@
       </c>
       <c r="J654">
         <f ca="1"/>
-        <v>74.179150000000007</v>
+        <v>73.697379999999995</v>
       </c>
     </row>
     <row r="655" spans="1:10" x14ac:dyDescent="0.25">
@@ -41611,7 +41632,7 @@
       </c>
       <c r="J655">
         <f ca="1"/>
-        <v>74.551509999999993</v>
+        <v>74.067319999999995</v>
       </c>
     </row>
     <row r="656" spans="1:10" x14ac:dyDescent="0.25">
@@ -41652,7 +41673,7 @@
       </c>
       <c r="J656">
         <f ca="1"/>
-        <v>74.956149999999994</v>
+        <v>74.469329999999999</v>
       </c>
     </row>
     <row r="657" spans="1:10" x14ac:dyDescent="0.25">
@@ -41693,7 +41714,7 @@
       </c>
       <c r="J657">
         <f ca="1"/>
-        <v>75.385949999999994</v>
+        <v>74.896339999999995</v>
       </c>
     </row>
     <row r="658" spans="1:10" x14ac:dyDescent="0.25">
@@ -41734,7 +41755,7 @@
       </c>
       <c r="J658">
         <f ca="1"/>
-        <v>75.755170000000007</v>
+        <v>75.263159999999999</v>
       </c>
     </row>
     <row r="659" spans="1:10" x14ac:dyDescent="0.25">
@@ -41775,7 +41796,7 @@
       </c>
       <c r="J659">
         <f ca="1"/>
-        <v>76.160229999999999</v>
+        <v>75.665589999999995</v>
       </c>
     </row>
     <row r="660" spans="1:10" x14ac:dyDescent="0.25">
@@ -41816,7 +41837,7 @@
       </c>
       <c r="J660">
         <f ca="1"/>
-        <v>76.693939999999998</v>
+        <v>76.195840000000004</v>
       </c>
     </row>
     <row r="661" spans="1:10" x14ac:dyDescent="0.25">
@@ -41857,7 +41878,7 @@
       </c>
       <c r="J661">
         <f ca="1"/>
-        <v>77.158990000000003</v>
+        <v>76.657859999999999</v>
       </c>
     </row>
     <row r="662" spans="1:10" x14ac:dyDescent="0.25">
@@ -41898,7 +41919,7 @@
       </c>
       <c r="J662">
         <f ca="1"/>
-        <v>77.105530000000002</v>
+        <v>76.604759999999999</v>
       </c>
     </row>
     <row r="663" spans="1:10" x14ac:dyDescent="0.25">
@@ -41939,7 +41960,7 @@
       </c>
       <c r="J663">
         <f ca="1"/>
-        <v>77.210939999999994</v>
+        <v>76.709479999999999</v>
       </c>
     </row>
     <row r="664" spans="1:10" x14ac:dyDescent="0.25">
@@ -41980,7 +42001,7 @@
       </c>
       <c r="J664">
         <f ca="1"/>
-        <v>77.48321</v>
+        <v>76.979969999999994</v>
       </c>
     </row>
     <row r="665" spans="1:10" x14ac:dyDescent="0.25">
@@ -42021,7 +42042,7 @@
       </c>
       <c r="J665">
         <f ca="1"/>
-        <v>77.649990000000003</v>
+        <v>77.145669999999996</v>
       </c>
     </row>
     <row r="666" spans="1:10" x14ac:dyDescent="0.25">
@@ -42062,7 +42083,7 @@
       </c>
       <c r="J666">
         <f ca="1"/>
-        <v>77.894660000000002</v>
+        <v>77.388750000000002</v>
       </c>
     </row>
     <row r="667" spans="1:10" x14ac:dyDescent="0.25">
@@ -42103,7 +42124,7 @@
       </c>
       <c r="J667">
         <f ca="1"/>
-        <v>78.035110000000003</v>
+        <v>77.528289999999998</v>
       </c>
     </row>
     <row r="668" spans="1:10" x14ac:dyDescent="0.25">
@@ -42144,7 +42165,7 @@
       </c>
       <c r="J668">
         <f ca="1"/>
-        <v>78.296899999999994</v>
+        <v>77.788380000000004</v>
       </c>
     </row>
     <row r="669" spans="1:10" x14ac:dyDescent="0.25">
@@ -42185,7 +42206,7 @@
       </c>
       <c r="J669">
         <f ca="1"/>
-        <v>78.450969999999998</v>
+        <v>77.941450000000003</v>
       </c>
     </row>
     <row r="670" spans="1:10" x14ac:dyDescent="0.25">
@@ -42210,13 +42231,17 @@
       </c>
       <c r="J670">
         <f ca="1"/>
-        <v>78.629320000000007</v>
+        <v>78.118650000000002</v>
       </c>
     </row>
     <row r="671" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A671" t="str">
         <v>2025-10-31</v>
       </c>
+      <c r="C671" t="str">
+        <f ca="1"/>
+        <v>ERR: NO DATA</v>
+      </c>
       <c r="D671">
         <f ca="1"/>
         <v>4.0599999999999997E-2</v>
@@ -42224,32 +42249,65 @@
       <c r="I671">
         <f ca="1"/>
         <v>1.67E-2</v>
+      </c>
+      <c r="J671">
+        <f ca="1"/>
+        <v>78.165539999999993</v>
       </c>
     </row>
     <row r="672" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A672" t="str">
         <v>2025-11-30</v>
       </c>
+      <c r="C672">
+        <f ca="1"/>
+        <v>325.03100000000001</v>
+      </c>
       <c r="D672">
         <f ca="1"/>
         <v>4.0899999999999999E-2</v>
       </c>
       <c r="I672">
         <f ca="1"/>
-        <v>1.67E-2</v>
-      </c>
-    </row>
-    <row r="673" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.6199999999999999E-2</v>
+      </c>
+      <c r="J672">
+        <f ca="1"/>
+        <v>78.574759999999998</v>
+      </c>
+    </row>
+    <row r="673" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A673" t="str">
         <v>2025-12-31</v>
       </c>
+      <c r="C673">
+        <f ca="1"/>
+        <v>326.02999999999997</v>
+      </c>
       <c r="D673">
         <f ca="1"/>
-        <v>4.02E-2</v>
+        <v>4.1399999999999999E-2</v>
       </c>
       <c r="I673">
         <f ca="1"/>
-        <v>1.7600000000000001E-2</v>
+        <v>1.55E-2</v>
+      </c>
+      <c r="J673">
+        <f ca="1"/>
+        <v>78.853700000000003</v>
+      </c>
+    </row>
+    <row r="674" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A674" t="str">
+        <v>2026-01-31</v>
+      </c>
+      <c r="D674">
+        <f ca="1"/>
+        <v>4.1799999999999997E-2</v>
+      </c>
+      <c r="I674">
+        <f ca="1"/>
+        <v>1.49E-2</v>
       </c>
     </row>
   </sheetData>

--- a/ecy4.xlsx
+++ b/ecy4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://perissosprivatewealth-my.sharepoint.com/personal/brandon_perissosprivatewealth_com/Documents/1 Perissos Private Wealth Management/5 Python/Wealth Utility API/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="219" documentId="13_ncr:1_{A317B0E7-1C5D-450E-A529-DF31A54AA737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{668CA87C-6841-484E-A393-00E5A0998B8F}"/>
+  <xr:revisionPtr revIDLastSave="220" documentId="13_ncr:1_{A317B0E7-1C5D-450E-A529-DF31A54AA737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75A33BBF-8E5A-42EB-9F4B-2EE4DC6596E7}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="28800" yWindow="15840" windowWidth="28800" windowHeight="15840" activeTab="1" xr2:uid="{7D23DFD4-FCD3-40E1-B8A0-B864FE11F7D6}"/>
+    <workbookView xWindow="28800" yWindow="15840" windowWidth="28800" windowHeight="15840" activeTab="1" xr2:uid="{7D23DFD4-FCD3-40E1-B8A0-B864FE11F7D6}"/>
   </bookViews>
   <sheets>
     <sheet name="ecy" sheetId="2" r:id="rId1"/>
